--- a/SUMMARY/06-21-2014 - FP&SAV - WIND() - const NtoP - Scheffer vers/simulation_summary_06-21-2014.xlsx
+++ b/SUMMARY/06-21-2014 - FP&SAV - WIND() - const NtoP - Scheffer vers/simulation_summary_06-21-2014.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Simulation started:</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>6/21/2014 ~ 6:30PM</t>
+  </si>
+  <si>
+    <t>6/22/2014 ~ 8:00 PM</t>
   </si>
 </sst>
 </file>
@@ -317,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -327,6 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,7 +349,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,7 +654,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B21" sqref="B21:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -679,7 +683,9 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="E2" s="6" t="s">
         <v>40</v>
       </c>
@@ -692,10 +698,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="14"/>
       <c r="E4" s="6" t="s">
         <v>44</v>
       </c>
@@ -732,16 +738,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" s="1"/>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
@@ -870,11 +876,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="E19" s="4" t="s">
         <v>37</v>
       </c>
@@ -974,7 +980,7 @@
       <c r="B25" s="4">
         <v>1</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="9" t="s">
         <v>63</v>
       </c>
       <c r="E25" s="4" t="s">
